--- a/public/files/2.1. Equip. Electrom. e Hidraulico de 3 HP - MONOFASICO.xlsx
+++ b/public/files/2.1. Equip. Electrom. e Hidraulico de 3 HP - MONOFASICO.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATOS120GBW10\Escritorio\Planillas de Componentes para importar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\escritorio\AA_PLANILLAS ORDEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B70447B-23C3-43AB-93FD-A55F517A8E60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3F5BE0-C342-4A1B-9DA9-3DF30215519F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C95EBAC6-EC04-4737-9958-778BE4107337}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C95EBAC6-EC04-4737-9958-778BE4107337}"/>
   </bookViews>
   <sheets>
-    <sheet name="2.1 EQUIPO ELECTROM. HIDRA-MONO" sheetId="1" r:id="rId1"/>
+    <sheet name="2.1 EQ ELECTROM. HIDRA 3HP-MONO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2.1 EQUIPO ELECTROM. HIDRA-MONO'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2.1 EQ ELECTROM. HIDRA 3HP-MONO'!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -444,12 +453,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -460,14 +465,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -488,15 +485,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -505,15 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -523,9 +502,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -544,7 +520,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,1639 +865,1647 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3D1E5C-CC7D-4DB2-B60E-B930B70E01CF}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="63.5703125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="3"/>
-    <col min="8" max="8" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="63.5703125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>3</v>
-      </c>
-      <c r="B2" s="26">
-        <v>1</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="A2" s="7">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
         <v>9999</v>
       </c>
-      <c r="D2" s="24">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="25">
         <v>0</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="H2" s="27">
+        <v>0</v>
+      </c>
+      <c r="I2" s="28">
+        <v>0</v>
+      </c>
+      <c r="J2" s="29">
+        <v>0</v>
+      </c>
+      <c r="K2" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>3</v>
-      </c>
-      <c r="B3" s="27">
-        <v>1</v>
-      </c>
-      <c r="C3" s="26">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
         <v>34</v>
       </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="18">
-        <v>1</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I3" s="30">
-        <v>0</v>
-      </c>
-      <c r="J3" s="31">
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
         <f>+F3*H3</f>
-        <v>7427120</v>
-      </c>
-      <c r="K3" s="31">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
         <f>+F3*I3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
         <v>35</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="18">
-        <v>1</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I4" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J4" s="31">
-        <f>+F4*H4</f>
-        <v>7427120</v>
-      </c>
-      <c r="K4" s="31">
-        <f>+F4*I4</f>
-        <v>1500000</v>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" ref="J4:J44" si="0">+F4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" ref="K4:K44" si="1">+F4*I4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="27">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
         <v>36</v>
       </c>
-      <c r="D5" s="7">
-        <v>3</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I5" s="30">
-        <v>0</v>
-      </c>
-      <c r="J5" s="31">
-        <f>+F5*H5</f>
-        <v>7427120</v>
-      </c>
-      <c r="K5" s="31">
-        <f>+F5*I5</f>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" s="26">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="16">
         <v>9999</v>
       </c>
-      <c r="D6" s="24">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="25">
         <v>0</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="29">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="27">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>37</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I7" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J7" s="31">
-        <f>+F7*H7</f>
-        <v>7427120</v>
-      </c>
-      <c r="K7" s="31">
-        <f>+F7*I7</f>
-        <v>1500000</v>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>3</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>38</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I8" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J8" s="31">
-        <f>+F8*H8</f>
-        <v>7427120</v>
-      </c>
-      <c r="K8" s="31">
-        <f>+F8*I8</f>
-        <v>1500000</v>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>3</v>
-      </c>
-      <c r="B9" s="27">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>39</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>6</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I9" s="30">
-        <v>0</v>
-      </c>
-      <c r="J9" s="31">
-        <f t="shared" ref="J9:J14" si="0">+F9*H9</f>
-        <v>7427120</v>
-      </c>
-      <c r="K9" s="31">
-        <f t="shared" ref="K9:K14" si="1">+F9*I9</f>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="27">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>40</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="18">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I10" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J10" s="31">
-        <f>+F10*H10</f>
-        <v>7427120</v>
-      </c>
-      <c r="K10" s="31">
-        <f>+F10*I10</f>
-        <v>1500000</v>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>3</v>
-      </c>
-      <c r="B11" s="27">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>41</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>8</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="18">
-        <v>1</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I11" s="30">
-        <v>0</v>
-      </c>
-      <c r="J11" s="31">
-        <f t="shared" si="0"/>
-        <v>7427120</v>
-      </c>
-      <c r="K11" s="31">
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>3</v>
-      </c>
-      <c r="B12" s="27">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17">
         <v>2</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>42</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>9</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I12" s="30">
-        <v>0</v>
-      </c>
-      <c r="J12" s="31">
-        <f t="shared" si="0"/>
-        <v>7427120</v>
-      </c>
-      <c r="K12" s="31">
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>3</v>
-      </c>
-      <c r="B13" s="27">
+      <c r="A13" s="7">
+        <v>3</v>
+      </c>
+      <c r="B13" s="17">
         <v>2</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>43</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I13" s="30">
-        <v>0</v>
-      </c>
-      <c r="J13" s="31">
-        <f t="shared" si="0"/>
-        <v>7427120</v>
-      </c>
-      <c r="K13" s="31">
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>3</v>
-      </c>
-      <c r="B14" s="27">
+      <c r="A14" s="7">
+        <v>3</v>
+      </c>
+      <c r="B14" s="17">
         <v>2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>44</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>11</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I14" s="30">
-        <v>0</v>
-      </c>
-      <c r="J14" s="31">
-        <f t="shared" si="0"/>
-        <v>7427120</v>
-      </c>
-      <c r="K14" s="31">
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>3</v>
-      </c>
-      <c r="B15" s="26">
-        <v>3</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+      <c r="B15" s="16">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16">
         <v>9999</v>
       </c>
-      <c r="D15" s="24">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="25">
         <v>0</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="H15" s="27">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>3</v>
-      </c>
-      <c r="B16" s="26">
-        <v>3</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9">
         <v>45</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>12</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="18">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I16" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J16" s="31">
-        <f t="shared" ref="J16:J20" si="2">+F16*H16</f>
-        <v>7427120</v>
-      </c>
-      <c r="K16" s="31">
-        <f t="shared" ref="K16:K20" si="3">+F16*I16</f>
-        <v>1500000</v>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>3</v>
-      </c>
-      <c r="B17" s="26">
-        <v>3</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="A17" s="7">
+        <v>3</v>
+      </c>
+      <c r="B17" s="16">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
         <v>46</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>13</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="18">
-        <v>1</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I17" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J17" s="31">
-        <f t="shared" si="2"/>
-        <v>7427120</v>
-      </c>
-      <c r="K17" s="31">
-        <f t="shared" si="3"/>
-        <v>1500000</v>
-      </c>
-      <c r="L17" s="8"/>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>3</v>
-      </c>
-      <c r="B18" s="26">
-        <v>3</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="A18" s="7">
+        <v>3</v>
+      </c>
+      <c r="B18" s="16">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9">
         <v>47</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>14</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I18" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J18" s="31">
-        <f t="shared" si="2"/>
-        <v>7427120</v>
-      </c>
-      <c r="K18" s="31">
-        <f t="shared" si="3"/>
-        <v>1500000</v>
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>3</v>
-      </c>
-      <c r="B19" s="26">
-        <v>3</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="A19" s="7">
+        <v>3</v>
+      </c>
+      <c r="B19" s="16">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9">
         <v>48</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <v>15</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I19" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J19" s="31">
-        <f t="shared" si="2"/>
-        <v>7427120</v>
-      </c>
-      <c r="K19" s="31">
-        <f t="shared" si="3"/>
-        <v>1500000</v>
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>3</v>
-      </c>
-      <c r="B20" s="26">
-        <v>3</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="A20" s="7">
+        <v>3</v>
+      </c>
+      <c r="B20" s="16">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9">
         <v>49</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>16</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18" t="s">
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I20" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J20" s="31">
-        <f t="shared" si="2"/>
-        <v>7427120</v>
-      </c>
-      <c r="K20" s="31">
-        <f t="shared" si="3"/>
-        <v>1500000</v>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>3</v>
-      </c>
-      <c r="B21" s="26">
-        <v>3</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="16">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
         <v>50</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>17</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I21" s="30">
-        <v>0</v>
-      </c>
-      <c r="J21" s="31">
-        <f t="shared" ref="J21:J31" si="4">+F21*H21</f>
-        <v>7427120</v>
-      </c>
-      <c r="K21" s="31">
-        <f t="shared" ref="K21:K31" si="5">+F21*I21</f>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="20">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>3</v>
-      </c>
-      <c r="B22" s="26">
-        <v>3</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="A22" s="7">
+        <v>3</v>
+      </c>
+      <c r="B22" s="16">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9">
         <v>51</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>18</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I22" s="30">
-        <v>0</v>
-      </c>
-      <c r="J22" s="31">
-        <f t="shared" si="4"/>
-        <v>7427120</v>
-      </c>
-      <c r="K22" s="31">
-        <f t="shared" si="5"/>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>3</v>
-      </c>
-      <c r="B23" s="26">
-        <v>3</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="A23" s="7">
+        <v>3</v>
+      </c>
+      <c r="B23" s="16">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9">
         <v>52</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <v>19</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18" t="s">
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I23" s="30">
-        <v>0</v>
-      </c>
-      <c r="J23" s="31">
-        <f t="shared" si="4"/>
-        <v>7427120</v>
-      </c>
-      <c r="K23" s="31">
-        <f t="shared" si="5"/>
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>3</v>
-      </c>
-      <c r="B24" s="26">
-        <v>3</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="A24" s="7">
+        <v>3</v>
+      </c>
+      <c r="B24" s="16">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9">
         <v>53</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>20</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="18">
-        <v>1</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I24" s="30">
-        <v>0</v>
-      </c>
-      <c r="J24" s="31">
-        <f t="shared" si="4"/>
-        <v>7427120</v>
-      </c>
-      <c r="K24" s="31">
-        <f t="shared" si="5"/>
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
+      <c r="I24" s="20">
+        <v>0</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>3</v>
-      </c>
-      <c r="B25" s="26">
-        <v>3</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="A25" s="7">
+        <v>3</v>
+      </c>
+      <c r="B25" s="16">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
         <v>54</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <v>21</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
-      <c r="G25" s="18" t="s">
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I25" s="30">
-        <v>0</v>
-      </c>
-      <c r="J25" s="31">
-        <f t="shared" si="4"/>
-        <v>7427120</v>
-      </c>
-      <c r="K25" s="31">
-        <f t="shared" si="5"/>
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+      <c r="I25" s="20">
+        <v>0</v>
+      </c>
+      <c r="J25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>3</v>
-      </c>
-      <c r="B26" s="26">
-        <v>3</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="A26" s="7">
+        <v>3</v>
+      </c>
+      <c r="B26" s="16">
+        <v>3</v>
+      </c>
+      <c r="C26" s="9">
         <v>55</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>22</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="18">
-        <v>1</v>
-      </c>
-      <c r="G26" s="18" t="s">
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I26" s="30">
-        <v>0</v>
-      </c>
-      <c r="J26" s="31">
-        <f t="shared" si="4"/>
-        <v>7427120</v>
-      </c>
-      <c r="K26" s="31">
-        <f t="shared" si="5"/>
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <v>3</v>
-      </c>
-      <c r="B27" s="26">
-        <v>3</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="A27" s="7">
+        <v>3</v>
+      </c>
+      <c r="B27" s="16">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9">
         <v>56</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <v>23</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" s="18" t="s">
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I27" s="30">
-        <v>0</v>
-      </c>
-      <c r="J27" s="31">
-        <f t="shared" si="4"/>
-        <v>7427120</v>
-      </c>
-      <c r="K27" s="31">
-        <f t="shared" si="5"/>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20">
+        <v>0</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>3</v>
-      </c>
-      <c r="B28" s="26">
-        <v>3</v>
-      </c>
-      <c r="C28" s="12">
+      <c r="A28" s="7">
+        <v>3</v>
+      </c>
+      <c r="B28" s="16">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9">
         <v>57</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>24</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="18">
-        <v>1</v>
-      </c>
-      <c r="G28" s="18" t="s">
+      <c r="F28" s="12">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I28" s="30">
-        <v>0</v>
-      </c>
-      <c r="J28" s="31">
-        <f t="shared" si="4"/>
-        <v>7427120</v>
-      </c>
-      <c r="K28" s="31">
-        <f t="shared" si="5"/>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20">
+        <v>0</v>
+      </c>
+      <c r="J28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>3</v>
-      </c>
-      <c r="B29" s="26">
-        <v>3</v>
-      </c>
-      <c r="C29" s="12">
+      <c r="A29" s="7">
+        <v>3</v>
+      </c>
+      <c r="B29" s="16">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9">
         <v>58</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <v>25</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="18">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18" t="s">
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I29" s="30">
-        <v>0</v>
-      </c>
-      <c r="J29" s="31">
-        <f t="shared" si="4"/>
-        <v>7427120</v>
-      </c>
-      <c r="K29" s="31">
-        <f t="shared" si="5"/>
+      <c r="H29" s="19">
+        <v>0</v>
+      </c>
+      <c r="I29" s="20">
+        <v>0</v>
+      </c>
+      <c r="J29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <v>3</v>
-      </c>
-      <c r="B30" s="26">
-        <v>3</v>
-      </c>
-      <c r="C30" s="12">
+      <c r="A30" s="7">
+        <v>3</v>
+      </c>
+      <c r="B30" s="16">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9">
         <v>59</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>26</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="18">
-        <v>1</v>
-      </c>
-      <c r="G30" s="18" t="s">
+      <c r="F30" s="12">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I30" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J30" s="31">
-        <f t="shared" si="4"/>
-        <v>7427120</v>
-      </c>
-      <c r="K30" s="31">
-        <f t="shared" si="5"/>
-        <v>1500000</v>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="20">
+        <v>0</v>
+      </c>
+      <c r="J30" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>3</v>
-      </c>
-      <c r="B31" s="26">
-        <v>3</v>
-      </c>
-      <c r="C31" s="12">
+      <c r="A31" s="7">
+        <v>3</v>
+      </c>
+      <c r="B31" s="16">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9">
         <v>60</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>27</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="18">
-        <v>1</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I31" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J31" s="31">
-        <f t="shared" si="4"/>
-        <v>7427120</v>
-      </c>
-      <c r="K31" s="31">
-        <f t="shared" si="5"/>
-        <v>1500000</v>
+      <c r="H31" s="19">
+        <v>0</v>
+      </c>
+      <c r="I31" s="20">
+        <v>0</v>
+      </c>
+      <c r="J31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>3</v>
-      </c>
-      <c r="B32" s="26">
+      <c r="A32" s="7">
+        <v>3</v>
+      </c>
+      <c r="B32" s="16">
         <v>4</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="16">
         <v>9999</v>
       </c>
-      <c r="D32" s="24">
-        <v>0</v>
-      </c>
-      <c r="E32" s="20" t="s">
+      <c r="D32" s="15">
+        <v>0</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="25">
         <v>0</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
+      <c r="H32" s="27">
+        <v>0</v>
+      </c>
+      <c r="I32" s="28">
+        <v>0</v>
+      </c>
+      <c r="J32" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>3</v>
-      </c>
-      <c r="B33" s="26">
+      <c r="A33" s="7">
+        <v>3</v>
+      </c>
+      <c r="B33" s="16">
         <v>4</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="9">
         <v>61</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="4">
         <v>28</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="18">
-        <v>1</v>
-      </c>
-      <c r="G33" s="18" t="s">
+      <c r="F33" s="12">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I33" s="30">
-        <v>0</v>
-      </c>
-      <c r="J33" s="31">
-        <f t="shared" ref="J33:J36" si="6">+F33*H33</f>
-        <v>7427120</v>
-      </c>
-      <c r="K33" s="31">
-        <f t="shared" ref="K33:K36" si="7">+F33*I33</f>
+      <c r="H33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20">
+        <v>0</v>
+      </c>
+      <c r="J33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <v>3</v>
-      </c>
-      <c r="B34" s="26">
+      <c r="A34" s="7">
+        <v>3</v>
+      </c>
+      <c r="B34" s="16">
         <v>4</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="9">
         <v>62</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>29</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="18">
-        <v>1</v>
-      </c>
-      <c r="G34" s="18" t="s">
+      <c r="F34" s="12">
+        <v>1</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I34" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J34" s="31">
-        <f t="shared" si="6"/>
-        <v>7427120</v>
-      </c>
-      <c r="K34" s="31">
-        <f t="shared" si="7"/>
-        <v>1500000</v>
+      <c r="H34" s="19">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20">
+        <v>0</v>
+      </c>
+      <c r="J34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <v>3</v>
-      </c>
-      <c r="B35" s="26">
+      <c r="A35" s="7">
+        <v>3</v>
+      </c>
+      <c r="B35" s="16">
         <v>4</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="9">
         <v>63</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <v>30</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="22">
-        <v>1</v>
-      </c>
-      <c r="G35" s="22" t="s">
+      <c r="F35" s="23">
+        <v>1</v>
+      </c>
+      <c r="G35" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H35" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I35" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J35" s="31">
-        <f t="shared" si="6"/>
-        <v>7427120</v>
-      </c>
-      <c r="K35" s="31">
-        <f t="shared" si="7"/>
-        <v>1500000</v>
+      <c r="H35" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="20">
+        <v>0</v>
+      </c>
+      <c r="J35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <v>3</v>
-      </c>
-      <c r="B36" s="26">
+      <c r="A36" s="7">
+        <v>3</v>
+      </c>
+      <c r="B36" s="16">
         <v>4</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="9">
         <v>64</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>31</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="18">
-        <v>1</v>
-      </c>
-      <c r="G36" s="18" t="s">
+      <c r="F36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I36" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J36" s="31">
-        <f t="shared" si="6"/>
-        <v>7427120</v>
-      </c>
-      <c r="K36" s="31">
-        <f t="shared" si="7"/>
-        <v>1500000</v>
+      <c r="H36" s="19">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20">
+        <v>0</v>
+      </c>
+      <c r="J36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
-        <v>3</v>
-      </c>
-      <c r="B37" s="26">
+      <c r="A37" s="7">
+        <v>3</v>
+      </c>
+      <c r="B37" s="16">
         <v>5</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="16">
         <v>9999</v>
       </c>
-      <c r="D37" s="24">
-        <v>0</v>
-      </c>
-      <c r="E37" s="20" t="s">
+      <c r="D37" s="15">
+        <v>0</v>
+      </c>
+      <c r="E37" s="24" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="25">
         <v>0</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="5">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
+      <c r="H37" s="27">
+        <v>0</v>
+      </c>
+      <c r="I37" s="28">
+        <v>0</v>
+      </c>
+      <c r="J37" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="29">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
-        <v>3</v>
-      </c>
-      <c r="B38" s="26">
+      <c r="A38" s="7">
+        <v>3</v>
+      </c>
+      <c r="B38" s="16">
         <v>5</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="9">
         <v>65</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>32</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="18">
-        <v>1</v>
-      </c>
-      <c r="G38" s="18" t="s">
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I38" s="30">
-        <v>0</v>
-      </c>
-      <c r="J38" s="31">
-        <f t="shared" ref="J38:J44" si="8">+F38*H38</f>
-        <v>7427120</v>
-      </c>
-      <c r="K38" s="31">
-        <f t="shared" ref="K38:K44" si="9">+F38*I38</f>
+      <c r="H38" s="19">
+        <v>0</v>
+      </c>
+      <c r="I38" s="20">
+        <v>0</v>
+      </c>
+      <c r="J38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
-        <v>3</v>
-      </c>
-      <c r="B39" s="26">
+      <c r="A39" s="7">
+        <v>3</v>
+      </c>
+      <c r="B39" s="16">
         <v>5</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="9">
         <v>66</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="4">
         <v>33</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="18">
-        <v>1</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I39" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J39" s="31">
-        <f t="shared" si="8"/>
-        <v>7427120</v>
-      </c>
-      <c r="K39" s="31">
-        <f t="shared" si="9"/>
-        <v>1500000</v>
+      <c r="H39" s="19">
+        <v>0</v>
+      </c>
+      <c r="I39" s="20">
+        <v>0</v>
+      </c>
+      <c r="J39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
-        <v>3</v>
-      </c>
-      <c r="B40" s="26">
+      <c r="A40" s="7">
+        <v>3</v>
+      </c>
+      <c r="B40" s="16">
         <v>5</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="9">
         <v>67</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>34</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="18">
-        <v>1</v>
-      </c>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="12">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I40" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J40" s="31">
-        <f t="shared" si="8"/>
-        <v>7427120</v>
-      </c>
-      <c r="K40" s="31">
-        <f t="shared" si="9"/>
-        <v>1500000</v>
+      <c r="H40" s="19">
+        <v>0</v>
+      </c>
+      <c r="I40" s="20">
+        <v>0</v>
+      </c>
+      <c r="J40" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
-        <v>3</v>
-      </c>
-      <c r="B41" s="26">
+      <c r="A41" s="7">
+        <v>3</v>
+      </c>
+      <c r="B41" s="16">
         <v>5</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="9">
         <v>68</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="4">
         <v>35</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="18">
-        <v>1</v>
-      </c>
-      <c r="G41" s="18" t="s">
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I41" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J41" s="31">
-        <f t="shared" si="8"/>
-        <v>7427120</v>
-      </c>
-      <c r="K41" s="31">
-        <f t="shared" si="9"/>
-        <v>1500000</v>
+      <c r="H41" s="19">
+        <v>0</v>
+      </c>
+      <c r="I41" s="20">
+        <v>0</v>
+      </c>
+      <c r="J41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
-        <v>3</v>
-      </c>
-      <c r="B42" s="26">
+      <c r="A42" s="7">
+        <v>3</v>
+      </c>
+      <c r="B42" s="16">
         <v>5</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="9">
         <v>69</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>36</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="18">
-        <v>1</v>
-      </c>
-      <c r="G42" s="18" t="s">
+      <c r="F42" s="12">
+        <v>1</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I42" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J42" s="31">
-        <f t="shared" si="8"/>
-        <v>7427120</v>
-      </c>
-      <c r="K42" s="31">
-        <f t="shared" si="9"/>
-        <v>1500000</v>
+      <c r="H42" s="19">
+        <v>0</v>
+      </c>
+      <c r="I42" s="20">
+        <v>0</v>
+      </c>
+      <c r="J42" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
-        <v>3</v>
-      </c>
-      <c r="B43" s="26">
+      <c r="A43" s="7">
+        <v>3</v>
+      </c>
+      <c r="B43" s="16">
         <v>5</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="9">
         <v>70</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="4">
         <v>37</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="18">
-        <v>1</v>
-      </c>
-      <c r="G43" s="18" t="s">
+      <c r="F43" s="12">
+        <v>1</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I43" s="30">
-        <v>1500000</v>
-      </c>
-      <c r="J43" s="31">
-        <f t="shared" si="8"/>
-        <v>7427120</v>
-      </c>
-      <c r="K43" s="31">
-        <f t="shared" si="9"/>
-        <v>1500000</v>
+      <c r="H43" s="19">
+        <v>0</v>
+      </c>
+      <c r="I43" s="20">
+        <v>0</v>
+      </c>
+      <c r="J43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
-        <v>3</v>
-      </c>
-      <c r="B44" s="26">
+      <c r="A44" s="7">
+        <v>3</v>
+      </c>
+      <c r="B44" s="16">
         <v>5</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="9">
         <v>71</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>38</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="18">
-        <v>1</v>
-      </c>
-      <c r="G44" s="18" t="s">
+      <c r="F44" s="12">
+        <v>1</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="29">
-        <v>7427120</v>
-      </c>
-      <c r="I44" s="30">
-        <v>0</v>
-      </c>
-      <c r="J44" s="31">
-        <f t="shared" si="8"/>
-        <v>7427120</v>
-      </c>
-      <c r="K44" s="31">
-        <f t="shared" si="9"/>
+      <c r="H44" s="19">
+        <v>0</v>
+      </c>
+      <c r="I44" s="20">
+        <v>0</v>
+      </c>
+      <c r="J44" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
